--- a/aves_v1/aves_Toca_v2.xlsx
+++ b/aves_v1/aves_Toca_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aves_toca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554571CB-9B80-41AF-8AE3-7D91A4309B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1102D92-0B97-40E4-832C-7B235B2CE2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12930" yWindow="3180" windowWidth="18750" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5010" yWindow="2625" windowWidth="18750" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -70,16 +70,16 @@
     <t>descricao</t>
   </si>
   <si>
-    <t>saí-verde_WA6513012.jpg</t>
-  </si>
-  <si>
-    <t>saí-azul_WA4419224.jpg</t>
-  </si>
-  <si>
-    <t>saíra-sete-cores_WA4419226.jpg</t>
-  </si>
-  <si>
-    <t>saíra-militar_WA4489517.jpg</t>
+    <t>WA6513012.jpg</t>
+  </si>
+  <si>
+    <t>WA4419224.jpg</t>
+  </si>
+  <si>
+    <t>WA4419226.jpg</t>
+  </si>
+  <si>
+    <t>WA4489517.jpg</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:AL934"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
